--- a/CODIGO ENTREGA/Modelo circuito.xlsx
+++ b/CODIGO ENTREGA/Modelo circuito.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NECSOFT\Desktop\deteccion de fallas\TRADUCCION CODIGO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NECSOFT\workspace\Prueba1\principal\CODIGO ENTREGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Tramos" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Consecutivo" sheetId="3" r:id="rId3"/>
+    <sheet name="Consecutivo (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Tramos!$E$1</definedName>
@@ -24,6 +25,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NECSOFT</author>
+  </authors>
+  <commentList>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NECSOFT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NECSOFT</author>
@@ -58,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="65">
   <si>
     <t>Ext 1</t>
   </si>
@@ -138,12 +173,6 @@
     <t>Acumulada</t>
   </si>
   <si>
-    <t>2+4+4</t>
-  </si>
-  <si>
-    <t>1+4+4</t>
-  </si>
-  <si>
     <t>R1B2</t>
   </si>
   <si>
@@ -202,14 +231,72 @@
   </si>
   <si>
     <t>R1R2R2B2</t>
+  </si>
+  <si>
+    <t>Indicadores de falla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicadores de falla </t>
+  </si>
+  <si>
+    <t>ESD14</t>
+  </si>
+  <si>
+    <t>RB3</t>
+  </si>
+  <si>
+    <t>ESD15</t>
+  </si>
+  <si>
+    <t>ESD16</t>
+  </si>
+  <si>
+    <t>RB4</t>
+  </si>
+  <si>
+    <t>ESD17</t>
+  </si>
+  <si>
+    <t>ESD18</t>
+  </si>
+  <si>
+    <t>RB6</t>
+  </si>
+  <si>
+    <t>ESD19</t>
+  </si>
+  <si>
+    <t>ESD20</t>
+  </si>
+  <si>
+    <t>RB8</t>
+  </si>
+  <si>
+    <t>ESD21</t>
+  </si>
+  <si>
+    <t>RB9</t>
+  </si>
+  <si>
+    <t>ESD23</t>
+  </si>
+  <si>
+    <t>ESD22</t>
+  </si>
+  <si>
+    <t>ESD24</t>
+  </si>
+  <si>
+    <t>EN TOTAL SON 11 INDICADORES DE FALLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -324,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +437,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,10 +757,14 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -687,10 +790,10 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>0.26385999999999998</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>0.26385999999999998</v>
       </c>
       <c r="E2" s="4">
@@ -704,11 +807,11 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
-        <v>456557</v>
-      </c>
-      <c r="D3" s="5">
-        <v>430171</v>
+      <c r="C3" s="11">
+        <v>4.5655700000000001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4.3017099999999999</v>
       </c>
       <c r="E3" s="4">
         <v>901</v>
@@ -721,11 +824,11 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
-        <v>10173886</v>
-      </c>
-      <c r="D4" s="5">
-        <v>9910026</v>
+      <c r="C4" s="11">
+        <v>10.173886</v>
+      </c>
+      <c r="D4" s="11">
+        <v>9.9100260000000002</v>
       </c>
       <c r="E4" s="4">
         <v>4092</v>
@@ -738,11 +841,11 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
-        <v>17869178</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7695292</v>
+      <c r="C5" s="11">
+        <v>17.869178000000002</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7.6952920000000002</v>
       </c>
       <c r="E5" s="4">
         <v>228</v>
@@ -755,11 +858,11 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
-        <v>13265326</v>
-      </c>
-      <c r="D6" s="5">
-        <v>309144</v>
+      <c r="C6" s="11">
+        <v>13.265326</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.09144</v>
       </c>
       <c r="E6" s="4">
         <v>101</v>
@@ -772,11 +875,11 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>17660296</v>
-      </c>
-      <c r="D7" s="5">
-        <v>439497</v>
+      <c r="C7" s="11">
+        <v>17.660295999999999</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.3949699999999998</v>
       </c>
       <c r="E7" s="4">
         <v>726</v>
@@ -789,11 +892,11 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>21245086</v>
-      </c>
-      <c r="D8" s="5">
-        <v>797976</v>
+      <c r="C8" s="11">
+        <v>21.245086000000001</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7.9797599999999997</v>
       </c>
       <c r="E8" s="4">
         <v>404</v>
@@ -806,11 +909,11 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
-        <v>25142136</v>
-      </c>
-      <c r="D9" s="5">
-        <v>389705</v>
+      <c r="C9" s="11">
+        <v>25.142136000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3.8970500000000001</v>
       </c>
       <c r="E9" s="4">
         <v>4063</v>
@@ -823,11 +926,11 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
-        <v>24221306</v>
-      </c>
-      <c r="D10" s="5">
-        <v>297622</v>
+      <c r="C10" s="11">
+        <v>24.221305999999998</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.9762200000000001</v>
       </c>
       <c r="E10" s="4">
         <v>489</v>
@@ -840,11 +943,11 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <v>32246515</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8025209</v>
+      <c r="C11" s="11">
+        <v>32.246515000000002</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8.0252090000000003</v>
       </c>
       <c r="E11" s="4">
         <v>914</v>
@@ -857,11 +960,11 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
-        <v>27635636</v>
-      </c>
-      <c r="D12" s="5">
-        <v>341433</v>
+      <c r="C12" s="11">
+        <v>27.635636000000002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.4143300000000001</v>
       </c>
       <c r="E12" s="4">
         <v>841</v>
@@ -874,11 +977,11 @@
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
-        <v>31633106</v>
-      </c>
-      <c r="D13" s="5">
-        <v>399747</v>
+      <c r="C13" s="11">
+        <v>31.633106000000002</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.9974699999999999</v>
       </c>
       <c r="E13" s="4">
         <v>295</v>
@@ -891,11 +994,11 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
-        <v>29130636</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1495</v>
+      <c r="C14" s="11">
+        <v>29.130635999999999</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.4950000000000001</v>
       </c>
       <c r="E14" s="4">
         <v>925</v>
@@ -908,11 +1011,11 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
-        <v>34838166</v>
-      </c>
-      <c r="D15" s="5">
-        <v>570753</v>
+      <c r="C15" s="11">
+        <v>34.838166000000001</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5.7075300000000002</v>
       </c>
       <c r="E15" s="4">
         <v>527</v>
@@ -925,11 +1028,11 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
-        <v>33546216</v>
-      </c>
-      <c r="D16" s="5">
-        <v>441558</v>
+      <c r="C16" s="11">
+        <v>33.546216000000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.4155800000000003</v>
       </c>
       <c r="E16" s="4">
         <v>137</v>
@@ -942,11 +1045,11 @@
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5">
-        <v>43862206</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1031599</v>
+      <c r="C17" s="11">
+        <v>43.862206</v>
+      </c>
+      <c r="D17" s="11">
+        <v>10.315989999999999</v>
       </c>
       <c r="E17" s="4">
         <v>8007</v>
@@ -959,11 +1062,11 @@
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
-        <v>37276586</v>
-      </c>
-      <c r="D18" s="5">
-        <v>373037</v>
+      <c r="C18" s="11">
+        <v>37.276586000000002</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3.7303700000000002</v>
       </c>
       <c r="E18" s="4">
         <v>306</v>
@@ -976,11 +1079,11 @@
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
-        <v>44727596</v>
-      </c>
-      <c r="D19" s="5">
-        <v>745101</v>
+      <c r="C19" s="11">
+        <v>44.727595999999998</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7.4510100000000001</v>
       </c>
       <c r="E19" s="4">
         <v>509</v>
@@ -993,11 +1096,11 @@
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5">
-        <v>47690496</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1041391</v>
+      <c r="C20" s="11">
+        <v>47.690496000000003</v>
+      </c>
+      <c r="D20" s="11">
+        <v>10.41391</v>
       </c>
       <c r="E20" s="4">
         <v>915</v>
@@ -1014,7 +1117,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,10 +1438,427 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10">
+        <v>0.26385999999999998</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11">
+        <v>9.9100260000000002</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11">
+        <v>3.09144</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11">
+        <v>7.9797599999999997</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11">
+        <v>2.9762200000000001</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11">
+        <v>3.4143300000000001</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11">
+        <v>4.4155800000000003</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11">
+        <v>3.7303700000000002</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11">
+        <v>10.41391</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>2.9689999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11">
+        <v>4.3017099999999999</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11">
+        <v>7.6952920000000002</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11">
+        <v>4.3949699999999998</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11">
+        <v>3.8970500000000001</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11">
+        <v>8.0252090000000003</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11">
+        <v>3.9974699999999999</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11">
+        <v>5.7075300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11">
+        <v>10.315989999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11">
+        <v>7.4510100000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1882,9 @@
       <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1426,9 +1949,6 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1445,10 +1965,6 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I6">
-        <f>1+4+4</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1529,13 +2045,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -1545,14 +2058,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="I12">
-        <f>2+4+4</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -1565,7 +2074,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1578,7 +2087,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -1591,7 +2100,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -1604,7 +2113,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -1617,7 +2126,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1629,7 +2138,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -1641,7 +2150,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -1656,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -1665,10 +2174,10 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -1677,10 +2186,10 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -1689,10 +2198,10 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -1701,10 +2210,10 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -1716,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -1725,10 +2234,10 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -1737,10 +2246,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -1749,10 +2258,10 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -1761,10 +2270,10 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -1773,10 +2282,10 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
